--- a/AllHands20250509_V1.xlsx
+++ b/AllHands20250509_V1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vengrin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvi-my.sharepoint.com/personal/anna_svarna_mirri_gov_sk/Documents/Pracovná plocha/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCE2C129-2899-4F48-82EE-FD3828DD5E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11580" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ciele" sheetId="2" r:id="rId1"/>
@@ -23,9 +24,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">aktivity_pracovny!$A$1:$G$144</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ciele!$A$1:$D$27</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2228" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1012,8 +1013,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1137,7 +1138,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45821.550711689815" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="143">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45821.550711689815" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="143" xr:uid="{098CC613-BA3A-4594-8B4F-F5B9E0B0A619}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G144" sheet="aktivity_pracovny"/>
   </cacheSource>
@@ -2663,7 +2664,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenčná tabuľka1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C3F9394-A2D8-4E3F-A458-4791416AAAF9}" name="Kontingenčná tabuľka1" cacheId="2228" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A2:D274" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -4114,7 +4115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -4123,12 +4124,12 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="64.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4156,7 +4157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" hidden="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4170,7 +4171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" hidden="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4184,7 +4185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" hidden="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4212,7 +4213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4254,7 +4255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4268,7 +4269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4282,7 +4283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4296,7 +4297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30" hidden="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4310,7 +4311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4324,7 +4325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30" hidden="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4338,7 +4339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="30" hidden="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4352,7 +4353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30" hidden="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="30" hidden="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4380,7 +4381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="30" hidden="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4394,7 +4395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="45" hidden="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4408,7 +4409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="30" hidden="1">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4422,7 +4423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="30" hidden="1">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4436,7 +4437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="30" hidden="1">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4450,7 +4451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30" hidden="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="30" hidden="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4478,7 +4479,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" hidden="1">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4492,7 +4493,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" hidden="1">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4507,7 +4508,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D27">
+  <autoFilter ref="A1:D27" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="ode"/>
@@ -4520,15 +4521,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
@@ -4538,12 +4539,12 @@
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
@@ -4561,7 +4562,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30.75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30.75">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4601,7 +4602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30.75">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4621,7 +4622,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30.75">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4641,7 +4642,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30.75">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4661,7 +4662,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30.75">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4701,7 +4702,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4721,7 +4722,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30.75">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4741,7 +4742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30.75">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4761,7 +4762,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30.75">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4781,7 +4782,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30.75">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4801,7 +4802,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30.75">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4821,7 +4822,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45.75">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4841,7 +4842,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30.75">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="30.75">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4881,7 +4882,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30.75">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4901,7 +4902,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30.75">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4921,7 +4922,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30.75">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4941,7 +4942,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="30.75">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4961,7 +4962,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="30.75">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4981,7 +4982,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="30.75">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5001,7 +5002,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30.75">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5021,7 +5022,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="30.75">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5041,7 +5042,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5058,7 +5059,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="30.75">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5075,7 +5076,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5112,7 +5113,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5129,7 +5130,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5146,7 +5147,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5163,7 +5164,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5180,7 +5181,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="30.75">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5197,7 +5198,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5214,7 +5215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="30.75">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5282,7 +5283,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5299,7 +5300,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="60.75">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5316,7 +5317,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="60.75">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5333,7 +5334,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="30.75">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5350,7 +5351,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5384,7 +5385,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5401,7 +5402,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="30.75">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5418,7 +5419,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5452,7 +5453,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="30.75">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5469,7 +5470,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="30.75">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5486,7 +5487,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5503,7 +5504,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="30.75">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5520,7 +5521,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="30.75">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5537,7 +5538,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5554,7 +5555,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5574,7 +5575,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5591,7 +5592,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5608,7 +5609,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="30.75">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5625,7 +5626,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5642,7 +5643,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5659,7 +5660,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5676,7 +5677,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="30.75">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5693,7 +5694,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5710,7 +5711,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5727,7 +5728,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5744,7 +5745,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5761,7 +5762,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5781,7 +5782,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5798,7 +5799,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5815,7 +5816,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5832,7 +5833,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="30.75">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5849,7 +5850,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="30.75">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5866,7 +5867,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="30.75">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5883,7 +5884,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="30.75">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5900,7 +5901,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5917,7 +5918,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5934,7 +5935,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5951,7 +5952,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5968,7 +5969,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5985,7 +5986,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6002,7 +6003,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6019,7 +6020,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6036,7 +6037,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6053,7 +6054,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6070,7 +6071,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6087,7 +6088,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6104,7 +6105,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6121,7 +6122,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6138,7 +6139,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6155,7 +6156,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6172,7 +6173,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="30.75">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6189,7 +6190,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="30.75">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6206,7 +6207,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="30.75">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6223,7 +6224,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6240,7 +6241,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="30.75">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6260,7 +6261,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="30.75">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6280,7 +6281,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="30.75">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6300,7 +6301,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="30.75">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6320,7 +6321,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="30.75">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6340,7 +6341,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="45.75">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6360,7 +6361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="45.75">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6380,7 +6381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="30.75">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="30.75">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6420,7 +6421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="30.75">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6440,7 +6441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="30.75">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6460,7 +6461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="30.75">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6480,7 +6481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="45.75">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6500,7 +6501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="30.75">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6520,7 +6521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6540,7 +6541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="45.75">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6560,7 +6561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6580,7 +6581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6600,7 +6601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6623,7 +6624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="30.75">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6640,7 +6641,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6657,7 +6658,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="30.75">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6691,7 +6692,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="30.75">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6708,7 +6709,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6725,7 +6726,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="30.75">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6742,7 +6743,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="30.75">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6759,7 +6760,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6776,7 +6777,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="30.75">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6793,7 +6794,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6810,7 +6811,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6827,7 +6828,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6844,7 +6845,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6861,7 +6862,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="30.75">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6878,7 +6879,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6895,7 +6896,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6912,7 +6913,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="30.75">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6929,7 +6930,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6946,7 +6947,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="30.75">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6963,7 +6964,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6980,7 +6981,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6997,7 +6998,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="30.75">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7014,7 +7015,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7031,7 +7032,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="30.75">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7065,7 +7066,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7082,7 +7083,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7099,7 +7100,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7116,7 +7117,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="30.75">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7133,637 +7134,637 @@
         <v>232</v>
       </c>
     </row>
-    <row r="145" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:7">
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="10"/>
       <c r="G145" s="9"/>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:7">
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:7">
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
     </row>
-    <row r="148" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:7">
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
     </row>
-    <row r="149" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:7">
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
     </row>
-    <row r="150" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:7">
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
     </row>
-    <row r="151" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:7">
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
     </row>
-    <row r="152" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:7">
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
     </row>
-    <row r="153" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:7">
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:7">
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:7">
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
     </row>
-    <row r="156" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:7">
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
     </row>
-    <row r="157" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:7">
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:7">
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:7">
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:7">
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:5">
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:5">
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:5">
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:5">
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:5">
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:5">
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:5">
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:5">
       <c r="D168"/>
       <c r="E168"/>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:5">
       <c r="D169"/>
       <c r="E169"/>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:5">
       <c r="D170"/>
       <c r="E170"/>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:5">
       <c r="D171"/>
       <c r="E171"/>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:5">
       <c r="D172"/>
       <c r="E172"/>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:5">
       <c r="D173"/>
       <c r="E173"/>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:5">
       <c r="D174"/>
       <c r="E174"/>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:5">
       <c r="D175"/>
       <c r="E175"/>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:5">
       <c r="D176"/>
       <c r="E176"/>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:5">
       <c r="D177"/>
       <c r="E177"/>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:5">
       <c r="D178"/>
       <c r="E178"/>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:5">
       <c r="D179"/>
       <c r="E179"/>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:5">
       <c r="D180"/>
       <c r="E180"/>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:5">
       <c r="D181"/>
       <c r="E181"/>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:5">
       <c r="D182"/>
       <c r="E182"/>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:5">
       <c r="D183"/>
       <c r="E183"/>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:5">
       <c r="D184"/>
       <c r="E184"/>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:5">
       <c r="D185"/>
       <c r="E185"/>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:5">
       <c r="D186"/>
       <c r="E186"/>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:5">
       <c r="D187"/>
       <c r="E187"/>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:5">
       <c r="D188"/>
       <c r="E188"/>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:5">
       <c r="D189"/>
       <c r="E189"/>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:5">
       <c r="D190"/>
       <c r="E190"/>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:5">
       <c r="D191"/>
       <c r="E191"/>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:5">
       <c r="D192"/>
       <c r="E192"/>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:5">
       <c r="D193"/>
       <c r="E193"/>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:5">
       <c r="D194"/>
       <c r="E194"/>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:5">
       <c r="D195"/>
       <c r="E195"/>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:5">
       <c r="D196"/>
       <c r="E196"/>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:5">
       <c r="D197"/>
       <c r="E197"/>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:5">
       <c r="D198"/>
       <c r="E198"/>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:5">
       <c r="D199"/>
       <c r="E199"/>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:5">
       <c r="D200"/>
       <c r="E200"/>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:5">
       <c r="D201"/>
       <c r="E201"/>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:5">
       <c r="D202"/>
       <c r="E202"/>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:5">
       <c r="D203"/>
       <c r="E203"/>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:5">
       <c r="D204"/>
       <c r="E204"/>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:5">
       <c r="D205"/>
       <c r="E205"/>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:5">
       <c r="D206"/>
       <c r="E206"/>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:5">
       <c r="D207"/>
       <c r="E207"/>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:5">
       <c r="D208"/>
       <c r="E208"/>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:5">
       <c r="D209"/>
       <c r="E209"/>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:5">
       <c r="D210"/>
       <c r="E210"/>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:5">
       <c r="D211"/>
       <c r="E211"/>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:5">
       <c r="D212"/>
       <c r="E212"/>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:5">
       <c r="D213"/>
       <c r="E213"/>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:5">
       <c r="D214"/>
       <c r="E214"/>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:5">
       <c r="D215"/>
       <c r="E215"/>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:5">
       <c r="D216"/>
       <c r="E216"/>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:5">
       <c r="D217"/>
       <c r="E217"/>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:5">
       <c r="D218"/>
       <c r="E218"/>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:5">
       <c r="D219"/>
       <c r="E219"/>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:5">
       <c r="D220"/>
       <c r="E220"/>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:5">
       <c r="D221"/>
       <c r="E221"/>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:5">
       <c r="D222"/>
       <c r="E222"/>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:5">
       <c r="D223"/>
       <c r="E223"/>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:5">
       <c r="D224"/>
       <c r="E224"/>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:5">
       <c r="D225"/>
       <c r="E225"/>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:5">
       <c r="D226"/>
       <c r="E226"/>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:5">
       <c r="D227"/>
       <c r="E227"/>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:5">
       <c r="D228"/>
       <c r="E228"/>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:5">
       <c r="D229"/>
       <c r="E229"/>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:5">
       <c r="D230"/>
       <c r="E230"/>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:5">
       <c r="D231"/>
       <c r="E231"/>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:5">
       <c r="D232"/>
       <c r="E232"/>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:5">
       <c r="D233"/>
       <c r="E233"/>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:5">
       <c r="D234"/>
       <c r="E234"/>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:5">
       <c r="D235"/>
       <c r="E235"/>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:5">
       <c r="D236"/>
       <c r="E236"/>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:5">
       <c r="D237"/>
       <c r="E237"/>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:5">
       <c r="D238"/>
       <c r="E238"/>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:5">
       <c r="D239"/>
       <c r="E239"/>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:5">
       <c r="D240"/>
       <c r="E240"/>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:5">
       <c r="D241"/>
       <c r="E241"/>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:5">
       <c r="D242"/>
       <c r="E242"/>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:5">
       <c r="D243"/>
       <c r="E243"/>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:5">
       <c r="D244"/>
       <c r="E244"/>
     </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:5">
       <c r="D245"/>
       <c r="E245"/>
     </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:5">
       <c r="D246"/>
       <c r="E246"/>
     </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:5">
       <c r="D247"/>
       <c r="E247"/>
     </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:5">
       <c r="D248"/>
       <c r="E248"/>
     </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:5">
       <c r="D249"/>
       <c r="E249"/>
     </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:5">
       <c r="D250"/>
       <c r="E250"/>
     </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:5">
       <c r="D251"/>
       <c r="E251"/>
     </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:5">
       <c r="D252"/>
       <c r="E252"/>
     </row>
-    <row r="253" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:5">
       <c r="D253"/>
       <c r="E253"/>
     </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:5">
       <c r="D254"/>
       <c r="E254"/>
     </row>
-    <row r="255" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:5">
       <c r="D255"/>
       <c r="E255"/>
     </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:5">
       <c r="D256"/>
       <c r="E256"/>
     </row>
-    <row r="257" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:5">
       <c r="D257"/>
       <c r="E257"/>
     </row>
-    <row r="258" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:5">
       <c r="D258"/>
       <c r="E258"/>
     </row>
-    <row r="259" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:5">
       <c r="D259"/>
       <c r="E259"/>
     </row>
-    <row r="260" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:5">
       <c r="D260"/>
       <c r="E260"/>
     </row>
-    <row r="261" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:5">
       <c r="D261"/>
       <c r="E261"/>
     </row>
-    <row r="262" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:5">
       <c r="D262"/>
       <c r="E262"/>
     </row>
-    <row r="263" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:5">
       <c r="D263"/>
       <c r="E263"/>
     </row>
-    <row r="264" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:5">
       <c r="D264"/>
       <c r="E264"/>
     </row>
-    <row r="265" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:5">
       <c r="D265"/>
       <c r="E265"/>
     </row>
-    <row r="266" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:5">
       <c r="D266"/>
       <c r="E266"/>
     </row>
-    <row r="267" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:5">
       <c r="D267"/>
       <c r="E267"/>
     </row>
-    <row r="268" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:5">
       <c r="D268"/>
       <c r="E268"/>
     </row>
-    <row r="269" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:5">
       <c r="D269"/>
       <c r="E269"/>
     </row>
-    <row r="270" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:5">
       <c r="D270"/>
       <c r="E270"/>
     </row>
-    <row r="271" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:5">
       <c r="D271"/>
       <c r="E271"/>
     </row>
-    <row r="272" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:5">
       <c r="D272"/>
       <c r="E272"/>
     </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:5">
       <c r="D273"/>
       <c r="E273"/>
     </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:5">
       <c r="D274"/>
       <c r="E274"/>
     </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:5">
       <c r="D275"/>
       <c r="E275"/>
     </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:5">
       <c r="D276"/>
       <c r="E276"/>
     </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:5">
       <c r="D277"/>
       <c r="E277"/>
     </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:5">
       <c r="D278"/>
       <c r="E278"/>
     </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:5">
       <c r="D279"/>
       <c r="E279"/>
     </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:5">
       <c r="D280"/>
       <c r="E280"/>
     </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:5">
       <c r="D281"/>
       <c r="E281"/>
     </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:5">
       <c r="D282"/>
       <c r="E282"/>
     </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:5">
       <c r="D283"/>
       <c r="E283"/>
     </row>
-    <row r="284" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:5">
       <c r="D284"/>
       <c r="E284"/>
     </row>
-    <row r="285" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:5">
       <c r="D285"/>
       <c r="E285"/>
     </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:5">
       <c r="D286"/>
       <c r="E286"/>
     </row>
-    <row r="287" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:5">
       <c r="D287"/>
       <c r="E287"/>
     </row>
-    <row r="288" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:5">
       <c r="D288"/>
       <c r="E288"/>
     </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:5">
       <c r="D289"/>
       <c r="E289"/>
     </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:5">
       <c r="D290"/>
       <c r="E290"/>
     </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:5">
       <c r="D291"/>
       <c r="E291"/>
     </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:5">
       <c r="D292"/>
       <c r="E292"/>
     </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:5">
       <c r="D293"/>
       <c r="E293"/>
     </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:5">
       <c r="D294"/>
       <c r="E294"/>
     </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:5">
       <c r="D295"/>
       <c r="E295"/>
     </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:5">
       <c r="D296"/>
       <c r="E296"/>
     </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:5">
       <c r="D297"/>
       <c r="E297"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G144"/>
+  <autoFilter ref="A1:G144" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
@@ -7773,7 +7774,7 @@
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7805,7 +7806,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7836,7 +7837,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7867,7 +7868,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7898,7 +7899,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="30">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7929,7 +7930,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="30">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7960,7 +7961,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7991,7 +7992,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8022,7 +8023,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8053,7 +8054,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8084,7 +8085,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="30">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8115,7 +8116,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8146,7 +8147,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="30">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8177,7 +8178,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="30">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8208,7 +8209,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8239,7 +8240,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8270,7 +8271,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="30">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8301,7 +8302,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="30">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8332,7 +8333,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="30">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8363,7 +8364,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="30">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8394,7 +8395,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="30">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8425,7 +8426,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="30">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8456,7 +8457,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="30">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8487,7 +8488,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="30">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8518,7 +8519,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="30">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8549,7 +8550,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8577,7 +8578,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="30">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8605,7 +8606,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8633,7 +8634,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="30">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8661,7 +8662,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8689,7 +8690,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8717,7 +8718,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8745,7 +8746,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8773,7 +8774,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="30">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8801,7 +8802,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8829,7 +8830,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8857,7 +8858,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8885,7 +8886,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="30">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8913,7 +8914,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8941,7 +8942,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8969,7 +8970,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="60">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8997,7 +8998,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="60">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9025,7 +9026,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="30">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9053,7 +9054,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9081,7 +9082,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9109,7 +9110,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9137,7 +9138,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="30">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9165,7 +9166,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9193,7 +9194,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9221,7 +9222,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="30">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9249,7 +9250,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="30">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9277,7 +9278,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9305,7 +9306,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="30">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9333,7 +9334,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="30">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9361,7 +9362,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9389,7 +9390,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9417,7 +9418,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9445,7 +9446,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>57</v>
       </c>
@@ -9473,7 +9474,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="30">
       <c r="A59">
         <v>58</v>
       </c>
@@ -9501,7 +9502,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>59</v>
       </c>
@@ -9529,7 +9530,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>60</v>
       </c>
@@ -9557,7 +9558,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>61</v>
       </c>
@@ -9585,7 +9586,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="30">
       <c r="A63">
         <v>62</v>
       </c>
@@ -9613,7 +9614,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>63</v>
       </c>
@@ -9641,7 +9642,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>64</v>
       </c>
@@ -9669,7 +9670,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>65</v>
       </c>
@@ -9697,7 +9698,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>66</v>
       </c>
@@ -9725,7 +9726,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>67</v>
       </c>
@@ -9753,7 +9754,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>68</v>
       </c>
@@ -9781,7 +9782,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>69</v>
       </c>
@@ -9809,7 +9810,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>70</v>
       </c>
@@ -9837,7 +9838,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="30">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9865,7 +9866,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="30">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9893,7 +9894,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="30">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9921,7 +9922,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="30">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9949,7 +9950,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9977,7 +9978,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>76</v>
       </c>
@@ -10005,7 +10006,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>77</v>
       </c>
@@ -10033,7 +10034,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>78</v>
       </c>
@@ -10061,7 +10062,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>79</v>
       </c>
@@ -10089,7 +10090,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>80</v>
       </c>
@@ -10117,7 +10118,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10145,7 +10146,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10173,7 +10174,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10201,7 +10202,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>84</v>
       </c>
@@ -10229,7 +10230,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>85</v>
       </c>
@@ -10257,7 +10258,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10285,7 +10286,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>87</v>
       </c>
@@ -10313,7 +10314,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>88</v>
       </c>
@@ -10341,7 +10342,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>89</v>
       </c>
@@ -10369,7 +10370,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>90</v>
       </c>
@@ -10397,7 +10398,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="30">
       <c r="A92">
         <v>91</v>
       </c>
@@ -10425,7 +10426,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="30">
       <c r="A93">
         <v>92</v>
       </c>
@@ -10453,7 +10454,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="30">
       <c r="A94">
         <v>93</v>
       </c>
@@ -10481,7 +10482,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>94</v>
       </c>
@@ -10509,7 +10510,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="30">
       <c r="A96">
         <v>95</v>
       </c>
@@ -10540,7 +10541,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="30">
       <c r="A97">
         <v>96</v>
       </c>
@@ -10571,7 +10572,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="30">
       <c r="A98">
         <v>97</v>
       </c>
@@ -10602,7 +10603,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="30">
       <c r="A99">
         <v>98</v>
       </c>
@@ -10633,7 +10634,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="30">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10664,7 +10665,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -10695,7 +10696,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -10726,7 +10727,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="30">
       <c r="A103">
         <v>102</v>
       </c>
@@ -10757,7 +10758,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="30">
       <c r="A104">
         <v>103</v>
       </c>
@@ -10788,7 +10789,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="30">
       <c r="A105">
         <v>104</v>
       </c>
@@ -10819,7 +10820,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="30">
       <c r="A106">
         <v>105</v>
       </c>
@@ -10850,7 +10851,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="30">
       <c r="A107">
         <v>106</v>
       </c>
@@ -10881,7 +10882,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -10912,7 +10913,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="30">
       <c r="A109">
         <v>108</v>
       </c>
@@ -10943,7 +10944,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>109</v>
       </c>
@@ -10974,7 +10975,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -11005,7 +11006,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="30">
       <c r="A112">
         <v>111</v>
       </c>
@@ -11036,7 +11037,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>112</v>
       </c>
@@ -11067,7 +11068,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>113</v>
       </c>
@@ -11098,7 +11099,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="30">
       <c r="A115">
         <v>114</v>
       </c>
@@ -11126,7 +11127,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>115</v>
       </c>
@@ -11154,7 +11155,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>116</v>
       </c>
@@ -11182,7 +11183,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="30">
       <c r="A118">
         <v>117</v>
       </c>
@@ -11210,7 +11211,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="30">
       <c r="A119">
         <v>118</v>
       </c>
@@ -11238,7 +11239,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>119</v>
       </c>
@@ -11266,7 +11267,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="30">
       <c r="A121">
         <v>120</v>
       </c>
@@ -11294,7 +11295,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="30">
       <c r="A122">
         <v>121</v>
       </c>
@@ -11322,7 +11323,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>122</v>
       </c>
@@ -11350,7 +11351,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="30">
       <c r="A124">
         <v>123</v>
       </c>
@@ -11378,7 +11379,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="30">
       <c r="A125">
         <v>124</v>
       </c>
@@ -11406,7 +11407,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>125</v>
       </c>
@@ -11434,7 +11435,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>126</v>
       </c>
@@ -11462,7 +11463,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10">
       <c r="A128">
         <v>127</v>
       </c>
@@ -11490,7 +11491,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="30">
       <c r="A129">
         <v>128</v>
       </c>
@@ -11518,7 +11519,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10">
       <c r="A130">
         <v>129</v>
       </c>
@@ -11546,7 +11547,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>130</v>
       </c>
@@ -11574,7 +11575,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="30">
       <c r="A132">
         <v>131</v>
       </c>
@@ -11602,7 +11603,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10">
       <c r="A133">
         <v>132</v>
       </c>
@@ -11630,7 +11631,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="30">
       <c r="A134">
         <v>133</v>
       </c>
@@ -11658,7 +11659,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>134</v>
       </c>
@@ -11686,7 +11687,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10">
       <c r="A136">
         <v>135</v>
       </c>
@@ -11714,7 +11715,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="30">
       <c r="A137">
         <v>136</v>
       </c>
@@ -11742,7 +11743,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="30">
       <c r="A138">
         <v>137</v>
       </c>
@@ -11770,7 +11771,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="30">
       <c r="A139">
         <v>138</v>
       </c>
@@ -11798,7 +11799,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10">
       <c r="A140">
         <v>139</v>
       </c>
@@ -11826,7 +11827,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10">
       <c r="A141">
         <v>140</v>
       </c>
@@ -11854,7 +11855,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10">
       <c r="A142">
         <v>141</v>
       </c>
@@ -11882,7 +11883,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10">
       <c r="A143">
         <v>142</v>
       </c>
@@ -11910,7 +11911,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="30">
       <c r="A144">
         <v>143</v>
       </c>
@@ -11930,26 +11931,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G133"/>
+  <autoFilter ref="A1:G133" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11960,7 +11961,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11971,7 +11972,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11982,7 +11983,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11993,7 +11994,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12004,7 +12005,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12015,7 +12016,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12026,7 +12027,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12043,14 +12044,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CA18E7-A2DA-4208-8149-0D4BBA9296DF}">
   <dimension ref="A2:D274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
@@ -12200,7 +12201,7 @@
     <col min="146" max="146" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -12214,7 +12215,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -12228,17 +12229,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="D4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="C5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="C6" t="s">
         <v>62</v>
       </c>
@@ -12246,12 +12247,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="C7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="C8" t="s">
         <v>57</v>
       </c>
@@ -12259,12 +12260,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="C9" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="C10" t="s">
         <v>59</v>
       </c>
@@ -12272,12 +12273,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="C11" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -12285,32 +12286,32 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="D13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="D14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="D15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="C16" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
         <v>64</v>
       </c>
@@ -12321,17 +12322,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="C19" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -12342,27 +12343,27 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4">
       <c r="D22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="D23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="D24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4">
       <c r="C25" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4">
       <c r="C26" t="s">
         <v>72</v>
       </c>
@@ -12370,12 +12371,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4">
       <c r="C27" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="C28" t="s">
         <v>51</v>
       </c>
@@ -12383,32 +12384,32 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4">
       <c r="D29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4">
       <c r="D30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4">
       <c r="D31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4">
       <c r="D32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="C33" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="C34" t="s">
         <v>80</v>
       </c>
@@ -12416,12 +12417,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="C35" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="C36" t="s">
         <v>82</v>
       </c>
@@ -12429,17 +12430,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="C37" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="B38" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="B39" t="s">
         <v>67</v>
       </c>
@@ -12450,17 +12451,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="C40" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="B41" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="B42" t="s">
         <v>47</v>
       </c>
@@ -12471,22 +12472,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="C43" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="B44" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -12500,27 +12501,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="D47" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="D48" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4">
       <c r="C49" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4">
       <c r="B50" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4">
       <c r="B51" t="s">
         <v>106</v>
       </c>
@@ -12531,17 +12532,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4">
       <c r="C52" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4">
       <c r="B53" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4">
       <c r="B54" t="s">
         <v>85</v>
       </c>
@@ -12552,12 +12553,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4">
       <c r="C55" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4">
       <c r="C56" t="s">
         <v>91</v>
       </c>
@@ -12565,17 +12566,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4">
       <c r="D57" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4">
       <c r="C58" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4">
       <c r="C59" t="s">
         <v>99</v>
       </c>
@@ -12583,17 +12584,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4">
       <c r="D60" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4">
       <c r="C61" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4">
       <c r="C62" t="s">
         <v>86</v>
       </c>
@@ -12601,22 +12602,22 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4">
       <c r="D63" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4">
       <c r="C64" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="B65" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="B66" t="s">
         <v>50</v>
       </c>
@@ -12627,12 +12628,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="C67" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="C68" t="s">
         <v>86</v>
       </c>
@@ -12640,22 +12641,22 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="D69" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="C70" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="B71" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="B72" t="s">
         <v>67</v>
       </c>
@@ -12666,22 +12667,22 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="C73" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="B74" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>255</v>
       </c>
@@ -12695,12 +12696,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="C77" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="C78" t="s">
         <v>88</v>
       </c>
@@ -12708,22 +12709,22 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="D79" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="C80" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4">
       <c r="B81" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4">
       <c r="B82" t="s">
         <v>106</v>
       </c>
@@ -12734,17 +12735,17 @@
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4">
       <c r="C83" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4">
       <c r="B84" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4">
       <c r="B85" t="s">
         <v>174</v>
       </c>
@@ -12755,22 +12756,22 @@
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4">
       <c r="D86" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4">
       <c r="C87" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4">
       <c r="B88" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4">
       <c r="B89" t="s">
         <v>85</v>
       </c>
@@ -12781,17 +12782,17 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4">
       <c r="D90" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4">
       <c r="C91" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4">
       <c r="C92" t="s">
         <v>91</v>
       </c>
@@ -12799,22 +12800,22 @@
         <v>170</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4">
       <c r="D93" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4">
       <c r="D94" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4">
       <c r="C95" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4">
       <c r="C96" t="s">
         <v>99</v>
       </c>
@@ -12822,27 +12823,27 @@
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4">
       <c r="D97" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4">
       <c r="D98" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4">
       <c r="D99" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4">
       <c r="C100" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4">
       <c r="C101" t="s">
         <v>117</v>
       </c>
@@ -12850,17 +12851,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4">
       <c r="D102" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4">
       <c r="C103" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4">
       <c r="C104" t="s">
         <v>163</v>
       </c>
@@ -12868,27 +12869,27 @@
         <v>165</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4">
       <c r="D105" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4">
       <c r="D106" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4">
       <c r="C107" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4">
       <c r="B108" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4">
       <c r="B109" t="s">
         <v>153</v>
       </c>
@@ -12899,12 +12900,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4">
       <c r="C110" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4">
       <c r="C111" t="s">
         <v>91</v>
       </c>
@@ -12912,12 +12913,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4">
       <c r="C112" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="C113" t="s">
         <v>50</v>
       </c>
@@ -12925,12 +12926,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="C114" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="C115" t="s">
         <v>86</v>
       </c>
@@ -12938,17 +12939,17 @@
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="C116" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="B117" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="B118" t="s">
         <v>50</v>
       </c>
@@ -12959,17 +12960,17 @@
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="D119" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="C120" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="C121" t="s">
         <v>86</v>
       </c>
@@ -12977,22 +12978,22 @@
         <v>151</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="C122" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="B123" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>31</v>
       </c>
@@ -13006,17 +13007,17 @@
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="C126" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="B127" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="B128" t="s">
         <v>72</v>
       </c>
@@ -13027,17 +13028,17 @@
         <v>224</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4">
       <c r="C129" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:4">
       <c r="B130" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4">
       <c r="B131" t="s">
         <v>106</v>
       </c>
@@ -13048,22 +13049,22 @@
         <v>230</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4">
       <c r="D132" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4">
       <c r="C133" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4">
       <c r="B134" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4">
       <c r="B135" t="s">
         <v>64</v>
       </c>
@@ -13074,17 +13075,17 @@
         <v>227</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4">
       <c r="C136" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4">
       <c r="B137" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4">
       <c r="B138" t="s">
         <v>109</v>
       </c>
@@ -13095,17 +13096,17 @@
         <v>219</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4">
       <c r="D139" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:4">
       <c r="C140" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4">
       <c r="C141" t="s">
         <v>119</v>
       </c>
@@ -13113,17 +13114,17 @@
         <v>216</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4">
       <c r="D142" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4">
       <c r="C143" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4">
       <c r="C144" t="s">
         <v>51</v>
       </c>
@@ -13131,12 +13132,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:4">
       <c r="C145" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:4">
       <c r="C146" t="s">
         <v>172</v>
       </c>
@@ -13144,12 +13145,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:4">
       <c r="C147" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:4">
       <c r="C148" t="s">
         <v>82</v>
       </c>
@@ -13157,17 +13158,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:4">
       <c r="D149" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:4">
       <c r="C150" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:4">
       <c r="C151" t="s">
         <v>167</v>
       </c>
@@ -13175,27 +13176,27 @@
         <v>212</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:4">
       <c r="D152" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:4">
       <c r="D153" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:4">
       <c r="D154" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:4">
       <c r="C155" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:4">
       <c r="C156" t="s">
         <v>117</v>
       </c>
@@ -13203,37 +13204,37 @@
         <v>218</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:4">
       <c r="D157" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:4">
       <c r="D158" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:4">
       <c r="D159" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:4">
       <c r="D160" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4">
       <c r="C161" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:4">
       <c r="B162" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:4">
       <c r="B163" t="s">
         <v>50</v>
       </c>
@@ -13244,17 +13245,17 @@
         <v>228</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4">
       <c r="D164" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4">
       <c r="C165" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4">
       <c r="C166" t="s">
         <v>82</v>
       </c>
@@ -13262,27 +13263,27 @@
         <v>225</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:4">
       <c r="D167" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:4">
       <c r="D168" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:4">
       <c r="C169" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:4">
       <c r="B170" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:4">
       <c r="B171" t="s">
         <v>67</v>
       </c>
@@ -13293,17 +13294,17 @@
         <v>231</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:4">
       <c r="D172" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:4">
       <c r="C173" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:4">
       <c r="C174" t="s">
         <v>104</v>
       </c>
@@ -13311,22 +13312,22 @@
         <v>104</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:4">
       <c r="C175" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:4">
       <c r="B176" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>16</v>
       </c>
@@ -13340,17 +13341,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4">
       <c r="C179" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4">
       <c r="B180" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4">
       <c r="B181" t="s">
         <v>85</v>
       </c>
@@ -13361,22 +13362,22 @@
         <v>122</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4">
       <c r="D182" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4">
       <c r="C183" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4">
       <c r="B184" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4">
       <c r="B185" t="s">
         <v>109</v>
       </c>
@@ -13387,22 +13388,22 @@
         <v>111</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4">
       <c r="D186" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4">
       <c r="D187" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4">
       <c r="C188" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4">
       <c r="C189" t="s">
         <v>119</v>
       </c>
@@ -13410,12 +13411,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4">
       <c r="C190" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="C191" t="s">
         <v>51</v>
       </c>
@@ -13423,17 +13424,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4">
       <c r="D192" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="C193" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4">
       <c r="C194" t="s">
         <v>117</v>
       </c>
@@ -13441,22 +13442,22 @@
         <v>118</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4">
       <c r="D195" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4">
       <c r="C196" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4">
       <c r="B197" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4">
       <c r="B198" t="s">
         <v>114</v>
       </c>
@@ -13467,22 +13468,22 @@
         <v>115</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4">
       <c r="C199" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4">
       <c r="B200" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>19</v>
       </c>
@@ -13496,17 +13497,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4">
       <c r="C203" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4">
       <c r="B204" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4">
       <c r="B205" t="s">
         <v>72</v>
       </c>
@@ -13517,17 +13518,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4">
       <c r="C206" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4">
       <c r="B207" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4">
       <c r="B208" t="s">
         <v>106</v>
       </c>
@@ -13538,17 +13539,17 @@
         <v>147</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:4">
       <c r="C209" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:4">
       <c r="B210" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:4">
       <c r="B211" t="s">
         <v>64</v>
       </c>
@@ -13559,17 +13560,17 @@
         <v>143</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:4">
       <c r="C212" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:4">
       <c r="B213" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:4">
       <c r="B214" t="s">
         <v>127</v>
       </c>
@@ -13580,12 +13581,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:4">
       <c r="C215" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:4">
       <c r="C216" t="s">
         <v>128</v>
       </c>
@@ -13593,22 +13594,22 @@
         <v>129</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:4">
       <c r="D217" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:4">
       <c r="C218" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:4">
       <c r="B219" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:4">
       <c r="B220" t="s">
         <v>133</v>
       </c>
@@ -13619,12 +13620,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:4">
       <c r="C221" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:4">
       <c r="C222" t="s">
         <v>50</v>
       </c>
@@ -13632,27 +13633,27 @@
         <v>139</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:4">
       <c r="D223" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:4">
       <c r="D224" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4">
       <c r="C225" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4">
       <c r="B226" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4">
       <c r="B227" t="s">
         <v>50</v>
       </c>
@@ -13663,17 +13664,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4">
       <c r="C228" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4">
       <c r="B229" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4">
       <c r="B230" t="s">
         <v>141</v>
       </c>
@@ -13684,17 +13685,17 @@
         <v>146</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4">
       <c r="D231" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4">
       <c r="C232" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4">
       <c r="C233" t="s">
         <v>57</v>
       </c>
@@ -13702,17 +13703,17 @@
         <v>142</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4">
       <c r="C234" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4">
       <c r="B235" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4">
       <c r="B236" t="s">
         <v>114</v>
       </c>
@@ -13723,22 +13724,22 @@
         <v>126</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4">
       <c r="C237" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4">
       <c r="B238" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>25</v>
       </c>
@@ -13752,22 +13753,22 @@
         <v>190</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:4">
       <c r="D241" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:4">
       <c r="D242" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:4">
       <c r="C243" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:4">
       <c r="C244" t="s">
         <v>51</v>
       </c>
@@ -13775,12 +13776,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:4">
       <c r="C245" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:4">
       <c r="C246" t="s">
         <v>82</v>
       </c>
@@ -13788,12 +13789,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:4">
       <c r="C247" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:4">
       <c r="C248" t="s">
         <v>117</v>
       </c>
@@ -13801,32 +13802,32 @@
         <v>193</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:4">
       <c r="D249" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:4">
       <c r="D250" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:4">
       <c r="D251" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:4">
       <c r="C252" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:4">
       <c r="B253" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:4">
       <c r="B254" t="s">
         <v>182</v>
       </c>
@@ -13837,17 +13838,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:4">
       <c r="D255" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:4">
       <c r="C256" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:4">
       <c r="C257" t="s">
         <v>172</v>
       </c>
@@ -13855,22 +13856,22 @@
         <v>186</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:4">
       <c r="D258" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:4">
       <c r="C259" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:4">
       <c r="B260" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:4">
       <c r="B261" t="s">
         <v>106</v>
       </c>
@@ -13881,17 +13882,17 @@
         <v>202</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:4">
       <c r="C262" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:4">
       <c r="B263" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:4">
       <c r="B264" t="s">
         <v>50</v>
       </c>
@@ -13902,22 +13903,22 @@
         <v>198</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:4">
       <c r="D265" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:4">
       <c r="C266" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:4">
       <c r="B267" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:4">
       <c r="B268" t="s">
         <v>114</v>
       </c>
@@ -13928,12 +13929,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:4">
       <c r="C269" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:4">
       <c r="C270" t="s">
         <v>51</v>
       </c>
@@ -13941,22 +13942,22 @@
         <v>196</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:4">
       <c r="C271" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:4">
       <c r="B272" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1">
       <c r="A273" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1">
       <c r="A274" t="s">
         <v>319</v>
       </c>
@@ -14155,6 +14156,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0468ed69-3505-498f-a95a-dbcb05356095" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -14163,46 +14172,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0468ed69-3505-498f-a95a-dbcb05356095" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E5BCB81-75C7-4A75-9644-0B98E93F393E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0468ed69-3505-498f-a95a-dbcb05356095"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E5BCB81-75C7-4A75-9644-0B98E93F393E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B96B2E95-3943-430F-82AA-E7CA6FD3CA32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3953219C-7DD2-49D2-9310-248EE4CE4004}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3953219C-7DD2-49D2-9310-248EE4CE4004}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0468ed69-3505-498f-a95a-dbcb05356095"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B96B2E95-3943-430F-82AA-E7CA6FD3CA32}"/>
 </file>
--- a/AllHands20250509_V1.xlsx
+++ b/AllHands20250509_V1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29012"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvi-my.sharepoint.com/personal/anna_svarna_mirri_gov_sk/Documents/Pracovná plocha/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vengrin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCE2C129-2899-4F48-82EE-FD3828DD5E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11580" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ciele" sheetId="2" r:id="rId1"/>
@@ -24,9 +23,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">aktivity_pracovny!$A$1:$G$144</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ciele!$A$1:$D$27</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="2228" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1013,8 +1012,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1138,7 +1137,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45821.550711689815" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="143" xr:uid="{098CC613-BA3A-4594-8B4F-F5B9E0B0A619}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45821.550711689815" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="143">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G144" sheet="aktivity_pracovny"/>
   </cacheSource>
@@ -2664,7 +2663,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C3F9394-A2D8-4E3F-A458-4791416AAAF9}" name="Kontingenčná tabuľka1" cacheId="2228" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenčná tabuľka1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A2:D274" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -4115,7 +4114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -4124,12 +4123,12 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="64.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4143,7 +4142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" hidden="1">
+    <row r="2" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4157,7 +4156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" hidden="1">
+    <row r="3" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4171,7 +4170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" hidden="1">
+    <row r="4" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4185,7 +4184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4199,7 +4198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" hidden="1">
+    <row r="6" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4213,7 +4212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4227,7 +4226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4241,7 +4240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4255,7 +4254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4283,7 +4282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4297,7 +4296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" hidden="1">
+    <row r="13" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4311,7 +4310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4325,7 +4324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" hidden="1">
+    <row r="15" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4339,7 +4338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" hidden="1">
+    <row r="16" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4353,7 +4352,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" hidden="1">
+    <row r="17" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4367,7 +4366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" hidden="1">
+    <row r="18" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4381,7 +4380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" hidden="1">
+    <row r="19" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4395,7 +4394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" hidden="1">
+    <row r="20" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4409,7 +4408,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" hidden="1">
+    <row r="21" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4423,7 +4422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" hidden="1">
+    <row r="22" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4437,7 +4436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" hidden="1">
+    <row r="23" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4451,7 +4450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" hidden="1">
+    <row r="24" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4465,7 +4464,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" hidden="1">
+    <row r="25" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4479,7 +4478,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" hidden="1">
+    <row r="26" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4493,7 +4492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" hidden="1">
+    <row r="27" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4508,7 +4507,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D27" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:D27">
     <filterColumn colId="1">
       <filters>
         <filter val="ode"/>
@@ -4521,15 +4520,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
@@ -4539,7 +4538,7 @@
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4562,7 +4561,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30.75">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4582,7 +4581,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30.75">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4602,7 +4601,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30.75">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4622,7 +4621,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30.75">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4642,7 +4641,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30.75">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4662,7 +4661,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30.75">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4682,7 +4681,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4702,7 +4701,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4722,7 +4721,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30.75">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4742,7 +4741,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4762,7 +4761,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30.75">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4782,7 +4781,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30.75">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4802,7 +4801,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30.75">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4822,7 +4821,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45.75">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4842,7 +4841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30.75">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4862,7 +4861,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30.75">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4882,7 +4881,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30.75">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4902,7 +4901,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30.75">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4922,7 +4921,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30.75">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4942,7 +4941,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30.75">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4962,7 +4961,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30.75">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4982,7 +4981,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30.75">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5002,7 +5001,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30.75">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5022,7 +5021,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30.75">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5042,7 +5041,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30.75">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5093,7 +5092,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5113,7 +5112,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5130,7 +5129,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5147,7 +5146,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5164,7 +5163,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5181,7 +5180,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30.75">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5198,7 +5197,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5215,7 +5214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5232,7 +5231,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5249,7 +5248,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30.75">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5266,7 +5265,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5283,7 +5282,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="60.75">
+    <row r="41" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5317,7 +5316,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="60.75">
+    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5334,7 +5333,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30.75">
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5351,7 +5350,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5368,7 +5367,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5402,7 +5401,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30.75">
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5419,7 +5418,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5436,7 +5435,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5453,7 +5452,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30.75">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5470,7 +5469,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30.75">
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5487,7 +5486,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5504,7 +5503,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30.75">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5521,7 +5520,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30.75">
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5538,7 +5537,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5555,7 +5554,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5575,7 +5574,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5592,7 +5591,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5609,7 +5608,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30.75">
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5626,7 +5625,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5643,7 +5642,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5660,7 +5659,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5677,7 +5676,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30.75">
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5694,7 +5693,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5711,7 +5710,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5728,7 +5727,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5745,7 +5744,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5762,7 +5761,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5782,7 +5781,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5799,7 +5798,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5816,7 +5815,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5833,7 +5832,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30.75">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5850,7 +5849,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30.75">
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5858,7 +5857,7 @@
         <v>148</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>86</v>
@@ -5867,7 +5866,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30.75">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5884,7 +5883,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30.75">
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5901,7 +5900,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5918,7 +5917,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5935,7 +5934,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5952,7 +5951,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5969,7 +5968,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5986,7 +5985,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6003,7 +6002,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6020,7 +6019,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6037,7 +6036,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6054,7 +6053,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6071,7 +6070,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6088,7 +6087,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6105,7 +6104,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6113,7 +6112,7 @@
         <v>148</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>50</v>
@@ -6122,7 +6121,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6130,7 +6129,7 @@
         <v>148</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>172</v>
@@ -6139,7 +6138,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6156,7 +6155,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6173,7 +6172,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30.75">
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6190,7 +6189,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30.75">
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6198,7 +6197,7 @@
         <v>148</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>91</v>
@@ -6207,7 +6206,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="30.75">
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6224,7 +6223,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6241,7 +6240,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="30.75">
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6261,7 +6260,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="30.75">
+    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6281,7 +6280,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="30.75">
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6301,7 +6300,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30.75">
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6321,7 +6320,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="30.75">
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6341,7 +6340,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="45.75">
+    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6361,7 +6360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="45.75">
+    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6381,7 +6380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="30.75">
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6401,7 +6400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="30.75">
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6421,7 +6420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="30.75">
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6441,7 +6440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="30.75">
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6461,7 +6460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="30.75">
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6481,7 +6480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="45.75">
+    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6501,7 +6500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="30.75">
+    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6521,7 +6520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6541,7 +6540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="45.75">
+    <row r="111" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6561,7 +6560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6581,7 +6580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6601,7 +6600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6624,7 +6623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="30.75">
+    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6641,7 +6640,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6658,7 +6657,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6675,7 +6674,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="30.75">
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6692,7 +6691,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="30.75">
+    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6709,7 +6708,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6726,7 +6725,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="30.75">
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6743,7 +6742,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="30.75">
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6760,7 +6759,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6777,7 +6776,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="30.75">
+    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6794,7 +6793,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6811,7 +6810,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6828,7 +6827,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6845,7 +6844,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6862,7 +6861,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="30.75">
+    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6879,7 +6878,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6896,7 +6895,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6913,7 +6912,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="30.75">
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6930,7 +6929,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6947,7 +6946,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="30.75">
+    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6964,7 +6963,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6981,7 +6980,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6998,7 +6997,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="30.75">
+    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7015,7 +7014,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7032,7 +7031,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="30.75">
+    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7049,7 +7048,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7066,7 +7065,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7083,7 +7082,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7100,7 +7099,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7117,7 +7116,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="30.75">
+    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7134,637 +7133,637 @@
         <v>232</v>
       </c>
     </row>
-    <row r="145" spans="4:7">
+    <row r="145" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="10"/>
       <c r="G145" s="9"/>
     </row>
-    <row r="146" spans="4:7">
+    <row r="146" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
     </row>
-    <row r="147" spans="4:7">
+    <row r="147" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
     </row>
-    <row r="148" spans="4:7">
+    <row r="148" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
     </row>
-    <row r="149" spans="4:7">
+    <row r="149" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
     </row>
-    <row r="150" spans="4:7">
+    <row r="150" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
     </row>
-    <row r="151" spans="4:7">
+    <row r="151" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
     </row>
-    <row r="152" spans="4:7">
+    <row r="152" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
     </row>
-    <row r="153" spans="4:7">
+    <row r="153" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
     </row>
-    <row r="154" spans="4:7">
+    <row r="154" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
     </row>
-    <row r="155" spans="4:7">
+    <row r="155" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
     </row>
-    <row r="156" spans="4:7">
+    <row r="156" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
     </row>
-    <row r="157" spans="4:7">
+    <row r="157" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
     </row>
-    <row r="158" spans="4:7">
+    <row r="158" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
     </row>
-    <row r="159" spans="4:7">
+    <row r="159" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
     </row>
-    <row r="160" spans="4:7">
+    <row r="160" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
     </row>
-    <row r="161" spans="4:5">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
     </row>
-    <row r="162" spans="4:5">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
     </row>
-    <row r="163" spans="4:5">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
     </row>
-    <row r="164" spans="4:5">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
     </row>
-    <row r="165" spans="4:5">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
     </row>
-    <row r="166" spans="4:5">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
     </row>
-    <row r="167" spans="4:5">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
     </row>
-    <row r="168" spans="4:5">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D168"/>
       <c r="E168"/>
     </row>
-    <row r="169" spans="4:5">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D169"/>
       <c r="E169"/>
     </row>
-    <row r="170" spans="4:5">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D170"/>
       <c r="E170"/>
     </row>
-    <row r="171" spans="4:5">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D171"/>
       <c r="E171"/>
     </row>
-    <row r="172" spans="4:5">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D172"/>
       <c r="E172"/>
     </row>
-    <row r="173" spans="4:5">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D173"/>
       <c r="E173"/>
     </row>
-    <row r="174" spans="4:5">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D174"/>
       <c r="E174"/>
     </row>
-    <row r="175" spans="4:5">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D175"/>
       <c r="E175"/>
     </row>
-    <row r="176" spans="4:5">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D176"/>
       <c r="E176"/>
     </row>
-    <row r="177" spans="4:5">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D177"/>
       <c r="E177"/>
     </row>
-    <row r="178" spans="4:5">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D178"/>
       <c r="E178"/>
     </row>
-    <row r="179" spans="4:5">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D179"/>
       <c r="E179"/>
     </row>
-    <row r="180" spans="4:5">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D180"/>
       <c r="E180"/>
     </row>
-    <row r="181" spans="4:5">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D181"/>
       <c r="E181"/>
     </row>
-    <row r="182" spans="4:5">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D182"/>
       <c r="E182"/>
     </row>
-    <row r="183" spans="4:5">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D183"/>
       <c r="E183"/>
     </row>
-    <row r="184" spans="4:5">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D184"/>
       <c r="E184"/>
     </row>
-    <row r="185" spans="4:5">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D185"/>
       <c r="E185"/>
     </row>
-    <row r="186" spans="4:5">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D186"/>
       <c r="E186"/>
     </row>
-    <row r="187" spans="4:5">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D187"/>
       <c r="E187"/>
     </row>
-    <row r="188" spans="4:5">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D188"/>
       <c r="E188"/>
     </row>
-    <row r="189" spans="4:5">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D189"/>
       <c r="E189"/>
     </row>
-    <row r="190" spans="4:5">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D190"/>
       <c r="E190"/>
     </row>
-    <row r="191" spans="4:5">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D191"/>
       <c r="E191"/>
     </row>
-    <row r="192" spans="4:5">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D192"/>
       <c r="E192"/>
     </row>
-    <row r="193" spans="4:5">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D193"/>
       <c r="E193"/>
     </row>
-    <row r="194" spans="4:5">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D194"/>
       <c r="E194"/>
     </row>
-    <row r="195" spans="4:5">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D195"/>
       <c r="E195"/>
     </row>
-    <row r="196" spans="4:5">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D196"/>
       <c r="E196"/>
     </row>
-    <row r="197" spans="4:5">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D197"/>
       <c r="E197"/>
     </row>
-    <row r="198" spans="4:5">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D198"/>
       <c r="E198"/>
     </row>
-    <row r="199" spans="4:5">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D199"/>
       <c r="E199"/>
     </row>
-    <row r="200" spans="4:5">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D200"/>
       <c r="E200"/>
     </row>
-    <row r="201" spans="4:5">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D201"/>
       <c r="E201"/>
     </row>
-    <row r="202" spans="4:5">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D202"/>
       <c r="E202"/>
     </row>
-    <row r="203" spans="4:5">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D203"/>
       <c r="E203"/>
     </row>
-    <row r="204" spans="4:5">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D204"/>
       <c r="E204"/>
     </row>
-    <row r="205" spans="4:5">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D205"/>
       <c r="E205"/>
     </row>
-    <row r="206" spans="4:5">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D206"/>
       <c r="E206"/>
     </row>
-    <row r="207" spans="4:5">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D207"/>
       <c r="E207"/>
     </row>
-    <row r="208" spans="4:5">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D208"/>
       <c r="E208"/>
     </row>
-    <row r="209" spans="4:5">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D209"/>
       <c r="E209"/>
     </row>
-    <row r="210" spans="4:5">
+    <row r="210" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D210"/>
       <c r="E210"/>
     </row>
-    <row r="211" spans="4:5">
+    <row r="211" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D211"/>
       <c r="E211"/>
     </row>
-    <row r="212" spans="4:5">
+    <row r="212" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D212"/>
       <c r="E212"/>
     </row>
-    <row r="213" spans="4:5">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D213"/>
       <c r="E213"/>
     </row>
-    <row r="214" spans="4:5">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D214"/>
       <c r="E214"/>
     </row>
-    <row r="215" spans="4:5">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D215"/>
       <c r="E215"/>
     </row>
-    <row r="216" spans="4:5">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D216"/>
       <c r="E216"/>
     </row>
-    <row r="217" spans="4:5">
+    <row r="217" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D217"/>
       <c r="E217"/>
     </row>
-    <row r="218" spans="4:5">
+    <row r="218" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D218"/>
       <c r="E218"/>
     </row>
-    <row r="219" spans="4:5">
+    <row r="219" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D219"/>
       <c r="E219"/>
     </row>
-    <row r="220" spans="4:5">
+    <row r="220" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D220"/>
       <c r="E220"/>
     </row>
-    <row r="221" spans="4:5">
+    <row r="221" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D221"/>
       <c r="E221"/>
     </row>
-    <row r="222" spans="4:5">
+    <row r="222" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D222"/>
       <c r="E222"/>
     </row>
-    <row r="223" spans="4:5">
+    <row r="223" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D223"/>
       <c r="E223"/>
     </row>
-    <row r="224" spans="4:5">
+    <row r="224" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D224"/>
       <c r="E224"/>
     </row>
-    <row r="225" spans="4:5">
+    <row r="225" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D225"/>
       <c r="E225"/>
     </row>
-    <row r="226" spans="4:5">
+    <row r="226" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D226"/>
       <c r="E226"/>
     </row>
-    <row r="227" spans="4:5">
+    <row r="227" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D227"/>
       <c r="E227"/>
     </row>
-    <row r="228" spans="4:5">
+    <row r="228" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D228"/>
       <c r="E228"/>
     </row>
-    <row r="229" spans="4:5">
+    <row r="229" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D229"/>
       <c r="E229"/>
     </row>
-    <row r="230" spans="4:5">
+    <row r="230" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D230"/>
       <c r="E230"/>
     </row>
-    <row r="231" spans="4:5">
+    <row r="231" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D231"/>
       <c r="E231"/>
     </row>
-    <row r="232" spans="4:5">
+    <row r="232" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D232"/>
       <c r="E232"/>
     </row>
-    <row r="233" spans="4:5">
+    <row r="233" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D233"/>
       <c r="E233"/>
     </row>
-    <row r="234" spans="4:5">
+    <row r="234" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D234"/>
       <c r="E234"/>
     </row>
-    <row r="235" spans="4:5">
+    <row r="235" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D235"/>
       <c r="E235"/>
     </row>
-    <row r="236" spans="4:5">
+    <row r="236" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D236"/>
       <c r="E236"/>
     </row>
-    <row r="237" spans="4:5">
+    <row r="237" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D237"/>
       <c r="E237"/>
     </row>
-    <row r="238" spans="4:5">
+    <row r="238" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D238"/>
       <c r="E238"/>
     </row>
-    <row r="239" spans="4:5">
+    <row r="239" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D239"/>
       <c r="E239"/>
     </row>
-    <row r="240" spans="4:5">
+    <row r="240" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D240"/>
       <c r="E240"/>
     </row>
-    <row r="241" spans="4:5">
+    <row r="241" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D241"/>
       <c r="E241"/>
     </row>
-    <row r="242" spans="4:5">
+    <row r="242" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D242"/>
       <c r="E242"/>
     </row>
-    <row r="243" spans="4:5">
+    <row r="243" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D243"/>
       <c r="E243"/>
     </row>
-    <row r="244" spans="4:5">
+    <row r="244" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D244"/>
       <c r="E244"/>
     </row>
-    <row r="245" spans="4:5">
+    <row r="245" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D245"/>
       <c r="E245"/>
     </row>
-    <row r="246" spans="4:5">
+    <row r="246" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D246"/>
       <c r="E246"/>
     </row>
-    <row r="247" spans="4:5">
+    <row r="247" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D247"/>
       <c r="E247"/>
     </row>
-    <row r="248" spans="4:5">
+    <row r="248" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D248"/>
       <c r="E248"/>
     </row>
-    <row r="249" spans="4:5">
+    <row r="249" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D249"/>
       <c r="E249"/>
     </row>
-    <row r="250" spans="4:5">
+    <row r="250" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D250"/>
       <c r="E250"/>
     </row>
-    <row r="251" spans="4:5">
+    <row r="251" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D251"/>
       <c r="E251"/>
     </row>
-    <row r="252" spans="4:5">
+    <row r="252" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D252"/>
       <c r="E252"/>
     </row>
-    <row r="253" spans="4:5">
+    <row r="253" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D253"/>
       <c r="E253"/>
     </row>
-    <row r="254" spans="4:5">
+    <row r="254" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D254"/>
       <c r="E254"/>
     </row>
-    <row r="255" spans="4:5">
+    <row r="255" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D255"/>
       <c r="E255"/>
     </row>
-    <row r="256" spans="4:5">
+    <row r="256" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D256"/>
       <c r="E256"/>
     </row>
-    <row r="257" spans="4:5">
+    <row r="257" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D257"/>
       <c r="E257"/>
     </row>
-    <row r="258" spans="4:5">
+    <row r="258" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D258"/>
       <c r="E258"/>
     </row>
-    <row r="259" spans="4:5">
+    <row r="259" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D259"/>
       <c r="E259"/>
     </row>
-    <row r="260" spans="4:5">
+    <row r="260" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D260"/>
       <c r="E260"/>
     </row>
-    <row r="261" spans="4:5">
+    <row r="261" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D261"/>
       <c r="E261"/>
     </row>
-    <row r="262" spans="4:5">
+    <row r="262" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D262"/>
       <c r="E262"/>
     </row>
-    <row r="263" spans="4:5">
+    <row r="263" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D263"/>
       <c r="E263"/>
     </row>
-    <row r="264" spans="4:5">
+    <row r="264" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D264"/>
       <c r="E264"/>
     </row>
-    <row r="265" spans="4:5">
+    <row r="265" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D265"/>
       <c r="E265"/>
     </row>
-    <row r="266" spans="4:5">
+    <row r="266" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D266"/>
       <c r="E266"/>
     </row>
-    <row r="267" spans="4:5">
+    <row r="267" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D267"/>
       <c r="E267"/>
     </row>
-    <row r="268" spans="4:5">
+    <row r="268" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D268"/>
       <c r="E268"/>
     </row>
-    <row r="269" spans="4:5">
+    <row r="269" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D269"/>
       <c r="E269"/>
     </row>
-    <row r="270" spans="4:5">
+    <row r="270" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D270"/>
       <c r="E270"/>
     </row>
-    <row r="271" spans="4:5">
+    <row r="271" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D271"/>
       <c r="E271"/>
     </row>
-    <row r="272" spans="4:5">
+    <row r="272" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D272"/>
       <c r="E272"/>
     </row>
-    <row r="273" spans="4:5">
+    <row r="273" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D273"/>
       <c r="E273"/>
     </row>
-    <row r="274" spans="4:5">
+    <row r="274" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D274"/>
       <c r="E274"/>
     </row>
-    <row r="275" spans="4:5">
+    <row r="275" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D275"/>
       <c r="E275"/>
     </row>
-    <row r="276" spans="4:5">
+    <row r="276" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D276"/>
       <c r="E276"/>
     </row>
-    <row r="277" spans="4:5">
+    <row r="277" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D277"/>
       <c r="E277"/>
     </row>
-    <row r="278" spans="4:5">
+    <row r="278" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D278"/>
       <c r="E278"/>
     </row>
-    <row r="279" spans="4:5">
+    <row r="279" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D279"/>
       <c r="E279"/>
     </row>
-    <row r="280" spans="4:5">
+    <row r="280" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D280"/>
       <c r="E280"/>
     </row>
-    <row r="281" spans="4:5">
+    <row r="281" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D281"/>
       <c r="E281"/>
     </row>
-    <row r="282" spans="4:5">
+    <row r="282" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D282"/>
       <c r="E282"/>
     </row>
-    <row r="283" spans="4:5">
+    <row r="283" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D283"/>
       <c r="E283"/>
     </row>
-    <row r="284" spans="4:5">
+    <row r="284" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D284"/>
       <c r="E284"/>
     </row>
-    <row r="285" spans="4:5">
+    <row r="285" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D285"/>
       <c r="E285"/>
     </row>
-    <row r="286" spans="4:5">
+    <row r="286" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D286"/>
       <c r="E286"/>
     </row>
-    <row r="287" spans="4:5">
+    <row r="287" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D287"/>
       <c r="E287"/>
     </row>
-    <row r="288" spans="4:5">
+    <row r="288" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D288"/>
       <c r="E288"/>
     </row>
-    <row r="289" spans="4:5">
+    <row r="289" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D289"/>
       <c r="E289"/>
     </row>
-    <row r="290" spans="4:5">
+    <row r="290" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D290"/>
       <c r="E290"/>
     </row>
-    <row r="291" spans="4:5">
+    <row r="291" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D291"/>
       <c r="E291"/>
     </row>
-    <row r="292" spans="4:5">
+    <row r="292" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D292"/>
       <c r="E292"/>
     </row>
-    <row r="293" spans="4:5">
+    <row r="293" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D293"/>
       <c r="E293"/>
     </row>
-    <row r="294" spans="4:5">
+    <row r="294" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D294"/>
       <c r="E294"/>
     </row>
-    <row r="295" spans="4:5">
+    <row r="295" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D295"/>
       <c r="E295"/>
     </row>
-    <row r="296" spans="4:5">
+    <row r="296" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D296"/>
       <c r="E296"/>
     </row>
-    <row r="297" spans="4:5">
+    <row r="297" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D297"/>
       <c r="E297"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G144" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:G144"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
@@ -7774,7 +7773,7 @@
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7806,7 +7805,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7837,7 +7836,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7868,7 +7867,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7899,7 +7898,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7930,7 +7929,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7961,7 +7960,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7992,7 +7991,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8023,7 +8022,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8054,7 +8053,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8085,7 +8084,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8116,7 +8115,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8147,7 +8146,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8178,7 +8177,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8209,7 +8208,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="45">
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8240,7 +8239,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8271,7 +8270,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30">
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8333,7 +8332,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30">
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8364,7 +8363,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30">
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8395,7 +8394,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="30">
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8426,7 +8425,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30">
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8457,7 +8456,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30">
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8488,7 +8487,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30">
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8519,7 +8518,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="30">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8550,7 +8549,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8578,7 +8577,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8606,7 +8605,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8634,7 +8633,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="30">
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8662,7 +8661,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8690,7 +8689,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8718,7 +8717,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8746,7 +8745,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8774,7 +8773,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="30">
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8802,7 +8801,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8830,7 +8829,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8858,7 +8857,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8886,7 +8885,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="30">
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8914,7 +8913,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8942,7 +8941,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8970,7 +8969,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="60">
+    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8998,7 +8997,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="60">
+    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9026,7 +9025,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="30">
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9054,7 +9053,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9082,7 +9081,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9110,7 +9109,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9138,7 +9137,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="30">
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9166,7 +9165,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9194,7 +9193,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9222,7 +9221,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="30">
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9250,7 +9249,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="30">
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9278,7 +9277,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9306,7 +9305,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="30">
+    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9334,7 +9333,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="30">
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9362,7 +9361,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9390,7 +9389,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9418,7 +9417,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9446,7 +9445,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -9474,7 +9473,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="30">
+    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -9502,7 +9501,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -9530,7 +9529,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -9558,7 +9557,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -9586,7 +9585,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="30">
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -9614,7 +9613,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -9642,7 +9641,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -9670,7 +9669,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -9698,7 +9697,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -9726,7 +9725,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -9754,7 +9753,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -9782,7 +9781,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -9810,7 +9809,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -9838,7 +9837,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="30">
+    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9866,7 +9865,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="30">
+    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9894,7 +9893,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="30">
+    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9922,7 +9921,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="30">
+    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9950,7 +9949,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9978,7 +9977,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -10006,7 +10005,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -10034,7 +10033,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -10062,7 +10061,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -10090,7 +10089,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -10118,7 +10117,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10146,7 +10145,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10174,7 +10173,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10202,7 +10201,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -10230,7 +10229,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -10258,7 +10257,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10286,7 +10285,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -10314,7 +10313,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -10342,7 +10341,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -10370,7 +10369,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -10398,7 +10397,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="30">
+    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -10426,7 +10425,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="30">
+    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -10454,7 +10453,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="30">
+    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -10482,7 +10481,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -10510,7 +10509,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="30">
+    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -10541,7 +10540,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="30">
+    <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -10572,7 +10571,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="30">
+    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -10603,7 +10602,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="30">
+    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -10634,7 +10633,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="30">
+    <row r="100" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10665,7 +10664,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="45">
+    <row r="101" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -10696,7 +10695,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="45">
+    <row r="102" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -10727,7 +10726,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="30">
+    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -10758,7 +10757,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="30">
+    <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -10789,7 +10788,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="30">
+    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -10820,7 +10819,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="30">
+    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -10851,7 +10850,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="30">
+    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -10882,7 +10881,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="45">
+    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -10913,7 +10912,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="30">
+    <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -10944,7 +10943,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -10975,7 +10974,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="45">
+    <row r="111" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -11006,7 +11005,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="30">
+    <row r="112" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -11037,7 +11036,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -11068,7 +11067,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -11099,7 +11098,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="30">
+    <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -11127,7 +11126,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -11155,7 +11154,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -11183,7 +11182,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="30">
+    <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -11211,7 +11210,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="30">
+    <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -11239,7 +11238,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -11267,7 +11266,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="30">
+    <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -11295,7 +11294,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="30">
+    <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -11323,7 +11322,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -11351,7 +11350,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="30">
+    <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -11379,7 +11378,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="30">
+    <row r="125" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -11407,7 +11406,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -11435,7 +11434,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -11463,7 +11462,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -11491,7 +11490,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="30">
+    <row r="129" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -11519,7 +11518,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -11547,7 +11546,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -11575,7 +11574,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="30">
+    <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -11603,7 +11602,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -11631,7 +11630,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="30">
+    <row r="134" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -11659,7 +11658,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -11687,7 +11686,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -11715,7 +11714,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="30">
+    <row r="137" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -11743,7 +11742,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="30">
+    <row r="138" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -11771,7 +11770,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="30">
+    <row r="139" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -11799,7 +11798,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -11827,7 +11826,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -11855,7 +11854,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -11883,7 +11882,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -11911,7 +11910,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="30">
+    <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -11931,26 +11930,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G133" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:G133"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11961,7 +11960,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11972,7 +11971,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11983,7 +11982,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11994,7 +11993,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12005,7 +12004,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12016,7 +12015,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12027,7 +12026,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12044,14 +12043,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CA18E7-A2DA-4208-8149-0D4BBA9296DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
@@ -12201,7 +12200,7 @@
     <col min="146" max="146" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -12215,7 +12214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -12229,17 +12228,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>62</v>
       </c>
@@ -12247,12 +12246,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>57</v>
       </c>
@@ -12260,12 +12259,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>59</v>
       </c>
@@ -12273,12 +12272,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -12286,32 +12285,32 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>64</v>
       </c>
@@ -12322,17 +12321,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -12343,27 +12342,27 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>72</v>
       </c>
@@ -12371,12 +12370,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>51</v>
       </c>
@@ -12384,32 +12383,32 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>80</v>
       </c>
@@ -12417,12 +12416,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>82</v>
       </c>
@@ -12430,17 +12429,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>67</v>
       </c>
@@ -12451,17 +12450,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>47</v>
       </c>
@@ -12472,22 +12471,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -12501,27 +12500,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>106</v>
       </c>
@@ -12532,17 +12531,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>85</v>
       </c>
@@ -12553,12 +12552,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>91</v>
       </c>
@@ -12566,17 +12565,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>99</v>
       </c>
@@ -12584,17 +12583,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>86</v>
       </c>
@@ -12602,22 +12601,22 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>50</v>
       </c>
@@ -12628,12 +12627,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>86</v>
       </c>
@@ -12641,22 +12640,22 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>67</v>
       </c>
@@ -12667,22 +12666,22 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>255</v>
       </c>
@@ -12696,12 +12695,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>88</v>
       </c>
@@ -12709,22 +12708,22 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="82" spans="2:4">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>106</v>
       </c>
@@ -12735,17 +12734,17 @@
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="2:4">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>174</v>
       </c>
@@ -12756,22 +12755,22 @@
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="2:4">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>85</v>
       </c>
@@ -12782,17 +12781,17 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="2:4">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="2:4">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>91</v>
       </c>
@@ -12800,22 +12799,22 @@
         <v>170</v>
       </c>
     </row>
-    <row r="93" spans="2:4">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="2:4">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="2:4">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="2:4">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>99</v>
       </c>
@@ -12823,27 +12822,27 @@
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="98" spans="2:4">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="2:4">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="101" spans="2:4">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>117</v>
       </c>
@@ -12851,17 +12850,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="2:4">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>163</v>
       </c>
@@ -12869,27 +12868,27 @@
         <v>165</v>
       </c>
     </row>
-    <row r="105" spans="2:4">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="106" spans="2:4">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="108" spans="2:4">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="109" spans="2:4">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>153</v>
       </c>
@@ -12900,12 +12899,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="110" spans="2:4">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="111" spans="2:4">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>91</v>
       </c>
@@ -12913,12 +12912,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="2:4">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>50</v>
       </c>
@@ -12926,12 +12925,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>86</v>
       </c>
@@ -12939,17 +12938,17 @@
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>50</v>
       </c>
@@ -12960,17 +12959,17 @@
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>86</v>
       </c>
@@ -12978,22 +12977,22 @@
         <v>151</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>31</v>
       </c>
@@ -13007,17 +13006,17 @@
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>72</v>
       </c>
@@ -13028,17 +13027,17 @@
         <v>224</v>
       </c>
     </row>
-    <row r="129" spans="2:4">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="130" spans="2:4">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>106</v>
       </c>
@@ -13049,22 +13048,22 @@
         <v>230</v>
       </c>
     </row>
-    <row r="132" spans="2:4">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="133" spans="2:4">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="134" spans="2:4">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="2:4">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>64</v>
       </c>
@@ -13075,17 +13074,17 @@
         <v>227</v>
       </c>
     </row>
-    <row r="136" spans="2:4">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="2:4">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="138" spans="2:4">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>109</v>
       </c>
@@ -13096,17 +13095,17 @@
         <v>219</v>
       </c>
     </row>
-    <row r="139" spans="2:4">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="140" spans="2:4">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="141" spans="2:4">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>119</v>
       </c>
@@ -13114,17 +13113,17 @@
         <v>216</v>
       </c>
     </row>
-    <row r="142" spans="2:4">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="143" spans="2:4">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="144" spans="2:4">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>51</v>
       </c>
@@ -13132,12 +13131,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="145" spans="3:4">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="146" spans="3:4">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>172</v>
       </c>
@@ -13145,12 +13144,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="147" spans="3:4">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="148" spans="3:4">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>82</v>
       </c>
@@ -13158,17 +13157,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="149" spans="3:4">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="150" spans="3:4">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="151" spans="3:4">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>167</v>
       </c>
@@ -13176,27 +13175,27 @@
         <v>212</v>
       </c>
     </row>
-    <row r="152" spans="3:4">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="153" spans="3:4">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="154" spans="3:4">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="155" spans="3:4">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="156" spans="3:4">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>117</v>
       </c>
@@ -13204,37 +13203,37 @@
         <v>218</v>
       </c>
     </row>
-    <row r="157" spans="3:4">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="158" spans="3:4">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="159" spans="3:4">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="160" spans="3:4">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="161" spans="2:4">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="162" spans="2:4">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="163" spans="2:4">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>50</v>
       </c>
@@ -13245,17 +13244,17 @@
         <v>228</v>
       </c>
     </row>
-    <row r="164" spans="2:4">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="165" spans="2:4">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="166" spans="2:4">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>82</v>
       </c>
@@ -13263,27 +13262,27 @@
         <v>225</v>
       </c>
     </row>
-    <row r="167" spans="2:4">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="168" spans="2:4">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="2:4">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="170" spans="2:4">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="171" spans="2:4">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>67</v>
       </c>
@@ -13294,17 +13293,17 @@
         <v>231</v>
       </c>
     </row>
-    <row r="172" spans="2:4">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="173" spans="2:4">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="174" spans="2:4">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
         <v>104</v>
       </c>
@@ -13312,22 +13311,22 @@
         <v>104</v>
       </c>
     </row>
-    <row r="175" spans="2:4">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="176" spans="2:4">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>16</v>
       </c>
@@ -13341,17 +13340,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>85</v>
       </c>
@@ -13362,22 +13361,22 @@
         <v>122</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>109</v>
       </c>
@@ -13388,22 +13387,22 @@
         <v>111</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D186" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D187" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
         <v>119</v>
       </c>
@@ -13411,12 +13410,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
         <v>51</v>
       </c>
@@ -13424,17 +13423,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
         <v>117</v>
       </c>
@@ -13442,22 +13441,22 @@
         <v>118</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D195" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>114</v>
       </c>
@@ -13468,22 +13467,22 @@
         <v>115</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>19</v>
       </c>
@@ -13497,17 +13496,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>72</v>
       </c>
@@ -13518,17 +13517,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>106</v>
       </c>
@@ -13539,17 +13538,17 @@
         <v>147</v>
       </c>
     </row>
-    <row r="209" spans="2:4">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="210" spans="2:4">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="211" spans="2:4">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>64</v>
       </c>
@@ -13560,17 +13559,17 @@
         <v>143</v>
       </c>
     </row>
-    <row r="212" spans="2:4">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C212" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="213" spans="2:4">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="214" spans="2:4">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>127</v>
       </c>
@@ -13581,12 +13580,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="215" spans="2:4">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="216" spans="2:4">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
         <v>128</v>
       </c>
@@ -13594,22 +13593,22 @@
         <v>129</v>
       </c>
     </row>
-    <row r="217" spans="2:4">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="218" spans="2:4">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="219" spans="2:4">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="220" spans="2:4">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>133</v>
       </c>
@@ -13620,12 +13619,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="221" spans="2:4">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="222" spans="2:4">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
         <v>50</v>
       </c>
@@ -13633,27 +13632,27 @@
         <v>139</v>
       </c>
     </row>
-    <row r="223" spans="2:4">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D223" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="224" spans="2:4">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D224" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>50</v>
       </c>
@@ -13664,17 +13663,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>141</v>
       </c>
@@ -13685,17 +13684,17 @@
         <v>146</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D231" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
         <v>57</v>
       </c>
@@ -13703,17 +13702,17 @@
         <v>142</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C234" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>114</v>
       </c>
@@ -13724,22 +13723,22 @@
         <v>126</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C237" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>25</v>
       </c>
@@ -13753,22 +13752,22 @@
         <v>190</v>
       </c>
     </row>
-    <row r="241" spans="2:4">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D241" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="242" spans="2:4">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="243" spans="2:4">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C243" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="244" spans="2:4">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C244" t="s">
         <v>51</v>
       </c>
@@ -13776,12 +13775,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="245" spans="2:4">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C245" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="246" spans="2:4">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C246" t="s">
         <v>82</v>
       </c>
@@ -13789,12 +13788,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="247" spans="2:4">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C247" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="248" spans="2:4">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C248" t="s">
         <v>117</v>
       </c>
@@ -13802,32 +13801,32 @@
         <v>193</v>
       </c>
     </row>
-    <row r="249" spans="2:4">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="250" spans="2:4">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="251" spans="2:4">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="252" spans="2:4">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C252" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="253" spans="2:4">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="254" spans="2:4">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>182</v>
       </c>
@@ -13838,17 +13837,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="255" spans="2:4">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D255" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="256" spans="2:4">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C256" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="257" spans="2:4">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C257" t="s">
         <v>172</v>
       </c>
@@ -13856,22 +13855,22 @@
         <v>186</v>
       </c>
     </row>
-    <row r="258" spans="2:4">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D258" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="259" spans="2:4">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C259" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="260" spans="2:4">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="261" spans="2:4">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>106</v>
       </c>
@@ -13882,17 +13881,17 @@
         <v>202</v>
       </c>
     </row>
-    <row r="262" spans="2:4">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="263" spans="2:4">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="264" spans="2:4">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>50</v>
       </c>
@@ -13903,22 +13902,22 @@
         <v>198</v>
       </c>
     </row>
-    <row r="265" spans="2:4">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="266" spans="2:4">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="267" spans="2:4">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="268" spans="2:4">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>114</v>
       </c>
@@ -13929,12 +13928,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="269" spans="2:4">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C269" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="270" spans="2:4">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C270" t="s">
         <v>51</v>
       </c>
@@ -13942,22 +13941,22 @@
         <v>196</v>
       </c>
     </row>
-    <row r="271" spans="2:4">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C271" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="272" spans="2:4">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>319</v>
       </c>
@@ -13968,6 +13967,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0468ed69-3505-498f-a95a-dbcb05356095" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087FB773D1D7A374AB66E36F9F36E3C19" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f8da64055712223c533c3df369899429">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0468ed69-3505-498f-a95a-dbcb05356095" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bc65acf708d6cc351b77129d84ba00c3" ns3:_="">
     <xsd:import namespace="0468ed69-3505-498f-a95a-dbcb05356095"/>
@@ -14155,31 +14171,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0468ed69-3505-498f-a95a-dbcb05356095" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E5BCB81-75C7-4A75-9644-0B98E93F393E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3953219C-7DD2-49D2-9310-248EE4CE4004}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="0468ed69-3505-498f-a95a-dbcb05356095"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3953219C-7DD2-49D2-9310-248EE4CE4004}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B96B2E95-3943-430F-82AA-E7CA6FD3CA32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B96B2E95-3943-430F-82AA-E7CA6FD3CA32}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E5BCB81-75C7-4A75-9644-0B98E93F393E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0468ed69-3505-498f-a95a-dbcb05356095"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>